--- a/aa_sequences/GFP11_Database_Brightness.xlsx
+++ b/aa_sequences/GFP11_Database_Brightness.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://utoronto-my.sharepoint.com/personal/annateresa_lai_mail_utoronto_ca/Documents/USRP Summer/GitHub/Pardee-Lab-computation-project-pipeline/aa_sequences/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_348BC0AE46EE719598983E7C0158D30457CE7B0E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ECE25FA0-101B-46C0-9F0A-46E7B71F3B89}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="11_348BC0AE46EE719598983E7C0158D30457CE7B0E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{809FE11B-0DAC-4EE8-BA32-53186900894E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12240" yWindow="1644" windowWidth="9192" windowHeight="12528" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="pandas" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="221">
   <si>
     <t>Amino Acid Sequence</t>
   </si>
@@ -353,13 +353,343 @@
   </si>
   <si>
     <t>RDHMVLLEFLTAAGIT</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>high_brightness14</t>
+  </si>
+  <si>
+    <t>high_brightness1</t>
+  </si>
+  <si>
+    <t>high_brightness2</t>
+  </si>
+  <si>
+    <t>high_brightness7</t>
+  </si>
+  <si>
+    <t>high_brightness3</t>
+  </si>
+  <si>
+    <t>high_brightness6</t>
+  </si>
+  <si>
+    <t>high_brightness4</t>
+  </si>
+  <si>
+    <t>high_brightness5</t>
+  </si>
+  <si>
+    <t>high_brightness8</t>
+  </si>
+  <si>
+    <t>high_brightness9</t>
+  </si>
+  <si>
+    <t>high_brightness10</t>
+  </si>
+  <si>
+    <t>high_brightness11</t>
+  </si>
+  <si>
+    <t>high_brightness12</t>
+  </si>
+  <si>
+    <t>high_brightness13</t>
+  </si>
+  <si>
+    <t>high_brightness15</t>
+  </si>
+  <si>
+    <t>high_brightness16</t>
+  </si>
+  <si>
+    <t>high_brightness17</t>
+  </si>
+  <si>
+    <t>high_brightness18</t>
+  </si>
+  <si>
+    <t>high_brightness19</t>
+  </si>
+  <si>
+    <t>high_brightness20</t>
+  </si>
+  <si>
+    <t>high_brightness21</t>
+  </si>
+  <si>
+    <t>high_brightness22</t>
+  </si>
+  <si>
+    <t>high_brightness23</t>
+  </si>
+  <si>
+    <t>high_brightness24</t>
+  </si>
+  <si>
+    <t>high_brightness25</t>
+  </si>
+  <si>
+    <t>high_brightness26</t>
+  </si>
+  <si>
+    <t>high_brightness27</t>
+  </si>
+  <si>
+    <t>high_brightness28</t>
+  </si>
+  <si>
+    <t>high_brightness29</t>
+  </si>
+  <si>
+    <t>high_brightness30</t>
+  </si>
+  <si>
+    <t>high_brightness31</t>
+  </si>
+  <si>
+    <t>high_brightness32</t>
+  </si>
+  <si>
+    <t>high_brightness33</t>
+  </si>
+  <si>
+    <t>high_brightness34</t>
+  </si>
+  <si>
+    <t>high_brightness35</t>
+  </si>
+  <si>
+    <t>high_brightness36</t>
+  </si>
+  <si>
+    <t>high_brightness37</t>
+  </si>
+  <si>
+    <t>high_brightness38</t>
+  </si>
+  <si>
+    <t>high_brightness39</t>
+  </si>
+  <si>
+    <t>high_brightness40</t>
+  </si>
+  <si>
+    <t>high_brightness41</t>
+  </si>
+  <si>
+    <t>high_brightness42</t>
+  </si>
+  <si>
+    <t>high_brightness43</t>
+  </si>
+  <si>
+    <t>high_brightness44</t>
+  </si>
+  <si>
+    <t>high_brightness45</t>
+  </si>
+  <si>
+    <t>high_brightness46</t>
+  </si>
+  <si>
+    <t>high_brightness47</t>
+  </si>
+  <si>
+    <t>high_brightness48</t>
+  </si>
+  <si>
+    <t>high_brightness49</t>
+  </si>
+  <si>
+    <t>high_brightness50</t>
+  </si>
+  <si>
+    <t>high_brightness51</t>
+  </si>
+  <si>
+    <t>high_brightness52</t>
+  </si>
+  <si>
+    <t>high_brightness53</t>
+  </si>
+  <si>
+    <t>high_brightness54</t>
+  </si>
+  <si>
+    <t>high_brightness55</t>
+  </si>
+  <si>
+    <t>high_brightness56</t>
+  </si>
+  <si>
+    <t>high_brightness57</t>
+  </si>
+  <si>
+    <t>high_brightness58</t>
+  </si>
+  <si>
+    <t>high_brightness59</t>
+  </si>
+  <si>
+    <t>high_brightness60</t>
+  </si>
+  <si>
+    <t>high_brightness61</t>
+  </si>
+  <si>
+    <t>high_brightness62</t>
+  </si>
+  <si>
+    <t>high_brightness63</t>
+  </si>
+  <si>
+    <t>high_brightness64</t>
+  </si>
+  <si>
+    <t>high_brightness65</t>
+  </si>
+  <si>
+    <t>high_brightness66</t>
+  </si>
+  <si>
+    <t>high_brightness67</t>
+  </si>
+  <si>
+    <t>high_brightness68</t>
+  </si>
+  <si>
+    <t>high_brightness69</t>
+  </si>
+  <si>
+    <t>high_brightness70</t>
+  </si>
+  <si>
+    <t>high_brightness71</t>
+  </si>
+  <si>
+    <t>high_brightness72</t>
+  </si>
+  <si>
+    <t>high_brightness73</t>
+  </si>
+  <si>
+    <t>high_brightness74</t>
+  </si>
+  <si>
+    <t>high_brightness75</t>
+  </si>
+  <si>
+    <t>high_brightness76</t>
+  </si>
+  <si>
+    <t>high_brightness77</t>
+  </si>
+  <si>
+    <t>high_brightness78</t>
+  </si>
+  <si>
+    <t>high_brightness79</t>
+  </si>
+  <si>
+    <t>high_brightness80</t>
+  </si>
+  <si>
+    <t>high_brightness81</t>
+  </si>
+  <si>
+    <t>high_brightness82</t>
+  </si>
+  <si>
+    <t>high_brightness83</t>
+  </si>
+  <si>
+    <t>high_brightness84</t>
+  </si>
+  <si>
+    <t>high_brightness85</t>
+  </si>
+  <si>
+    <t>high_brightness86</t>
+  </si>
+  <si>
+    <t>high_brightness87</t>
+  </si>
+  <si>
+    <t>high_brightness88</t>
+  </si>
+  <si>
+    <t>high_brightness89</t>
+  </si>
+  <si>
+    <t>high_brightness90</t>
+  </si>
+  <si>
+    <t>high_brightness91</t>
+  </si>
+  <si>
+    <t>high_brightness92</t>
+  </si>
+  <si>
+    <t>high_brightness93</t>
+  </si>
+  <si>
+    <t>high_brightness94</t>
+  </si>
+  <si>
+    <t>high_brightness95</t>
+  </si>
+  <si>
+    <t>high_brightness96</t>
+  </si>
+  <si>
+    <t>high_brightness97</t>
+  </si>
+  <si>
+    <t>high_brightness98</t>
+  </si>
+  <si>
+    <t>high_brightness99</t>
+  </si>
+  <si>
+    <t>high_brightness100</t>
+  </si>
+  <si>
+    <t>high_brightness101</t>
+  </si>
+  <si>
+    <t>high_brightness102</t>
+  </si>
+  <si>
+    <t>high_brightness103</t>
+  </si>
+  <si>
+    <t>high_brightness104</t>
+  </si>
+  <si>
+    <t>high_brightness105</t>
+  </si>
+  <si>
+    <t>high_brightness106</t>
+  </si>
+  <si>
+    <t>high_brightness107</t>
+  </si>
+  <si>
+    <t>high_brightness108</t>
+  </si>
+  <si>
+    <t>high_brightness109</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -371,6 +701,18 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -408,11 +750,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -715,1225 +1058,1557 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C110"/>
+  <dimension ref="A1:D110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B113" sqref="B113"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="3" max="3" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>3.7192121319</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>79</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>3.2633811702700002</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>80</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>3.5775370072000001</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>81</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>3.6019233322500002</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>83</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" t="s">
         <v>6</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>3.5748593452800002</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>84</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" t="s">
         <v>7</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>3.6791889550899999</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>85</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" t="s">
         <v>8</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>3.73116200157</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>86</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" t="s">
         <v>9</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>3.6382058930699999</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>87</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" t="s">
         <v>10</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>3.7279540189199998</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>88</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" t="s">
         <v>11</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>3.6394883297399998</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>3454</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" t="s">
         <v>12</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>3.6488370511800001</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>3455</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" t="s">
         <v>13</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>3.50875844216</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>3457</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" t="s">
         <v>14</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>3.2469936871799998</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>3458</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" t="s">
         <v>15</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>3.50414684832</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>3460</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" t="s">
         <v>16</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>2.6371845221300001</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>3462</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" t="s">
         <v>17</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>3.41929257441</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>3464</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" t="s">
         <v>18</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>1.73452756118</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>6241</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" t="s">
         <v>19</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>3.15089981654</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>6242</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20" t="s">
         <v>20</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>3.2752184892299998</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>6243</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C21" t="s">
         <v>21</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>3.5038233380600001</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>6245</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C22" t="s">
         <v>22</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>3.1381239074099998</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>6248</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C23" t="s">
         <v>23</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>3.21187447405</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>6249</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24" t="s">
         <v>24</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>3.1381575723799999</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>6250</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25" t="s">
         <v>25</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>3.1191850744899998</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>10319</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C26" t="s">
         <v>26</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>3.6584113195999999</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>10321</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C27" t="s">
         <v>27</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>3.6728558862899998</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>10323</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C28" t="s">
         <v>28</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>3.72778773365</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>10325</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C29" t="s">
         <v>29</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>3.5557462466200001</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>10328</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C30" t="s">
         <v>30</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>3.2708005421599999</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>10330</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C31" t="s">
         <v>31</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>3.6530683282299998</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>10334</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C32" t="s">
         <v>32</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>3.2176481776600001</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>10338</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C33" t="s">
         <v>33</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>3.7056765952199999</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>10339</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C34" t="s">
         <v>34</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>3.7415342921399999</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>10340</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C35" t="s">
         <v>35</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>3.7987300715000001</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>10342</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C36" t="s">
         <v>36</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>3.7210374582600001</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>10343</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C37" t="s">
         <v>37</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>3.50402203247</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>16074</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" t="s">
         <v>38</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>3.6373951671999998</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>16075</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C39" t="s">
         <v>39</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>3.75857662052</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>16077</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C40" t="s">
         <v>40</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>3.6942051813800001</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>16079</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C41" t="s">
         <v>41</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>3.6680272069500002</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>16080</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C42" t="s">
         <v>42</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>3.6939027435499998</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>17475</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C43" t="s">
         <v>43</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>1.5109388724099999</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>17476</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C44" t="s">
         <v>44</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>1.3010300161699999</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>17478</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C45" t="s">
         <v>45</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>3.5324142976699999</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>17480</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C46" t="s">
         <v>46</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>1.3010299909800001</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>17481</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C47" t="s">
         <v>47</v>
       </c>
-      <c r="C47">
+      <c r="D47">
         <v>1.54082065138</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>17482</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C48" t="s">
         <v>48</v>
       </c>
-      <c r="C48">
+      <c r="D48">
         <v>1.3010299940100001</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>17483</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C49" t="s">
         <v>49</v>
       </c>
-      <c r="C49">
+      <c r="D49">
         <v>1.3003362734599999</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>17484</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C50" t="s">
         <v>50</v>
       </c>
-      <c r="C50">
+      <c r="D50">
         <v>1.81427930408</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>17485</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C51" t="s">
         <v>51</v>
       </c>
-      <c r="C51">
+      <c r="D51">
         <v>1.41848060701</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>21014</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C52" t="s">
         <v>52</v>
       </c>
-      <c r="C52">
+      <c r="D52">
         <v>3.6910967185399999</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>21015</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C53" t="s">
         <v>53</v>
       </c>
-      <c r="C53">
+      <c r="D53">
         <v>3.6782828036500002</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>21019</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C54" t="s">
         <v>54</v>
       </c>
-      <c r="C54">
+      <c r="D54">
         <v>3.7743394981199998</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>21020</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C55" t="s">
         <v>55</v>
       </c>
-      <c r="C55">
+      <c r="D55">
         <v>3.6531505158700002</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>21024</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C56" t="s">
         <v>56</v>
       </c>
-      <c r="C56">
+      <c r="D56">
         <v>3.7065338926</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>21029</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C57" t="s">
         <v>57</v>
       </c>
-      <c r="C57">
+      <c r="D57">
         <v>3.7948095697199999</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>21032</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C58" t="s">
         <v>58</v>
       </c>
-      <c r="C58">
+      <c r="D58">
         <v>3.6964243812299999</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>21037</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C59" t="s">
         <v>59</v>
       </c>
-      <c r="C59">
+      <c r="D59">
         <v>3.6496253354300001</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>31582</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C60" t="s">
         <v>60</v>
       </c>
-      <c r="C60">
+      <c r="D60">
         <v>1.30470648161</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>31584</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C61" t="s">
         <v>61</v>
       </c>
-      <c r="C61">
+      <c r="D61">
         <v>1.30103000133</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>31585</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C62" t="s">
         <v>62</v>
       </c>
-      <c r="C62">
+      <c r="D62">
         <v>3.08545271765</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>31586</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C63" t="s">
         <v>63</v>
       </c>
-      <c r="C63">
+      <c r="D63">
         <v>1.58979890097</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>31587</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C64" t="s">
         <v>64</v>
       </c>
-      <c r="C64">
+      <c r="D64">
         <v>3.7478059786600002</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>31590</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C65" t="s">
         <v>65</v>
       </c>
-      <c r="C65">
+      <c r="D65">
         <v>3.6975305542700001</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>31591</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C66" t="s">
         <v>66</v>
       </c>
-      <c r="C66">
+      <c r="D66">
         <v>3.6497636898099999</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>31592</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C67" t="s">
         <v>67</v>
       </c>
-      <c r="C67">
+      <c r="D67">
         <v>3.7109833720999998</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>31593</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C68" t="s">
         <v>68</v>
       </c>
-      <c r="C68">
+      <c r="D68">
         <v>3.7933465557499999</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>33899</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C69" t="s">
         <v>69</v>
       </c>
-      <c r="C69">
+      <c r="D69">
         <v>3.5434474788300001</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>33900</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C70" t="s">
         <v>70</v>
       </c>
-      <c r="C70">
+      <c r="D70">
         <v>1.3010301880699999</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>33901</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C71" t="s">
         <v>71</v>
       </c>
-      <c r="C71">
+      <c r="D71">
         <v>3.15203794442</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>33902</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C72" t="s">
         <v>72</v>
       </c>
-      <c r="C72">
+      <c r="D72">
         <v>1.6406570199099999</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>33903</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C73" t="s">
         <v>73</v>
       </c>
-      <c r="C73">
+      <c r="D73">
         <v>3.6360331459099999</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>33905</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C74" t="s">
         <v>74</v>
       </c>
-      <c r="C74">
+      <c r="D74">
         <v>3.7705713373899998</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>33906</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C75" t="s">
         <v>75</v>
       </c>
-      <c r="C75">
+      <c r="D75">
         <v>1.6419321468400001</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>33907</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C76" t="s">
         <v>76</v>
       </c>
-      <c r="C76">
+      <c r="D76">
         <v>3.4934373160900001</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>33909</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C77" t="s">
         <v>77</v>
       </c>
-      <c r="C77">
+      <c r="D77">
         <v>3.3611500456300001</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>33914</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C78" t="s">
         <v>78</v>
       </c>
-      <c r="C78">
+      <c r="D78">
         <v>3.4798890928900001</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>33916</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C79" t="s">
         <v>79</v>
       </c>
-      <c r="C79">
+      <c r="D79">
         <v>3.4084091938499999</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>33917</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C80" t="s">
         <v>80</v>
       </c>
-      <c r="C80">
+      <c r="D80">
         <v>3.3364760698199998</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>33918</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C81" t="s">
         <v>81</v>
       </c>
-      <c r="C81">
+      <c r="D81">
         <v>3.53591621682</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>42776</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C82" t="s">
         <v>82</v>
       </c>
-      <c r="C82">
+      <c r="D82">
         <v>3.6963119190999998</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>42777</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C83" t="s">
         <v>83</v>
       </c>
-      <c r="C83">
+      <c r="D83">
         <v>3.7718808373799999</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>42780</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C84" t="s">
         <v>84</v>
       </c>
-      <c r="C84">
+      <c r="D84">
         <v>3.6210505616000002</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>42782</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C85" t="s">
         <v>85</v>
       </c>
-      <c r="C85">
+      <c r="D85">
         <v>3.65418453844</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>42783</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C86" t="s">
         <v>86</v>
       </c>
-      <c r="C86">
+      <c r="D86">
         <v>3.6587013524700001</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>42784</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C87" t="s">
         <v>87</v>
       </c>
-      <c r="C87">
+      <c r="D87">
         <v>2.72574018228</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>42785</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C88" t="s">
         <v>88</v>
       </c>
-      <c r="C88">
+      <c r="D88">
         <v>3.7698161415200002</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>42787</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C89" t="s">
         <v>89</v>
       </c>
-      <c r="C89">
+      <c r="D89">
         <v>3.71525769992</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>42788</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C90" t="s">
         <v>90</v>
       </c>
-      <c r="C90">
+      <c r="D90">
         <v>3.85265935346</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>42789</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C91" t="s">
         <v>91</v>
       </c>
-      <c r="C91">
+      <c r="D91">
         <v>3.7160700824099999</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>42795</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C92" t="s">
         <v>92</v>
       </c>
-      <c r="C92">
+      <c r="D92">
         <v>3.6349529446700002</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>42796</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C93" t="s">
         <v>93</v>
       </c>
-      <c r="C93">
+      <c r="D93">
         <v>3.7181785917400001</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>42797</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C94" t="s">
         <v>94</v>
       </c>
-      <c r="C94">
+      <c r="D94">
         <v>3.7355741671399998</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>49203</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C95" t="s">
         <v>95</v>
       </c>
-      <c r="C95">
+      <c r="D95">
         <v>3.5256187827000001</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>49205</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C96" t="s">
         <v>96</v>
       </c>
-      <c r="C96">
+      <c r="D96">
         <v>3.2928954023800001</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>49207</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C97" t="s">
         <v>97</v>
       </c>
-      <c r="C97">
+      <c r="D97">
         <v>3.3008918668299998</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>49210</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C98" t="s">
         <v>98</v>
       </c>
-      <c r="C98">
+      <c r="D98">
         <v>3.3918172089700001</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>49211</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C99" t="s">
         <v>99</v>
       </c>
-      <c r="C99">
+      <c r="D99">
         <v>3.3204170632499999</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>49212</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C100" t="s">
         <v>100</v>
       </c>
-      <c r="C100">
+      <c r="D100">
         <v>3.7775120043600001</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>49213</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C101" t="s">
         <v>101</v>
       </c>
-      <c r="C101">
+      <c r="D101">
         <v>3.6583636295500002</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>49214</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C102" t="s">
         <v>102</v>
       </c>
-      <c r="C102">
+      <c r="D102">
         <v>3.65635479022</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>49215</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C103" t="s">
         <v>103</v>
       </c>
-      <c r="C103">
+      <c r="D103">
         <v>3.5043832827400001</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>49216</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C104" t="s">
         <v>104</v>
       </c>
-      <c r="C104">
+      <c r="D104">
         <v>3.5553875629</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>49219</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C105" t="s">
         <v>105</v>
       </c>
-      <c r="C105">
+      <c r="D105">
         <v>3.5035988714699999</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>49220</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C106" t="s">
         <v>106</v>
       </c>
-      <c r="C106">
+      <c r="D106">
         <v>3.4352193238800002</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>49221</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C107" t="s">
         <v>107</v>
       </c>
-      <c r="C107">
+      <c r="D107">
         <v>3.4604717091700001</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>49222</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C108" t="s">
         <v>108</v>
       </c>
-      <c r="C108">
+      <c r="D108">
         <v>3.2569489205200002</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>49223</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C109" t="s">
         <v>109</v>
       </c>
-      <c r="C109">
+      <c r="D109">
         <v>3.28412262789</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>49225</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C110" t="s">
         <v>110</v>
       </c>
-      <c r="C110">
+      <c r="D110">
         <v>3.78735090221</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>